--- a/plots/countries/plot data/Ukraine.xlsx
+++ b/plots/countries/plot data/Ukraine.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>87.7702103785472</v>
+        <v>89.620832709</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>142.352199321132</v>
+        <v>142.352221721132</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-47.0503579357906</v>
+        <v>-47.8971750304933</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>16.9554050377693</v>
+        <v>16.9468646079969</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>82.1211386882867</v>
+        <v>84.035021094</v>
       </c>
     </row>
     <row r="12">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-54.8188321884597</v>
+        <v>-55.6571191892629</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>16.9359904646453</v>
+        <v>16.9278080517283</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>76.8331894112081</v>
+        <v>78.622989324</v>
       </c>
     </row>
     <row r="21">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-53.289733297421</v>
+        <v>-54.1200850400075</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>16.8455946816718</v>
+        <v>16.8379534794009</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>73.4569762872424</v>
+        <v>75.109841389</v>
       </c>
     </row>
     <row r="30">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-47.3016932621164</v>
+        <v>-48.0731235132514</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>16.7298637824158</v>
+        <v>16.7227917488176</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>66.9920434607891</v>
+        <v>68.468993144</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-49.1996954317564</v>
+        <v>-49.8916493846913</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>16.3938910363145</v>
+        <v>16.3874604116819</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>61.3884152141763</v>
+        <v>62.631781509</v>
       </c>
     </row>
     <row r="48">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-45.3238449237229</v>
+        <v>-46.0026898430122</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>16.3551693007959</v>
+        <v>16.3495318036767</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>52.4364716613528</v>
+        <v>53.469131184</v>
       </c>
     </row>
     <row r="57">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-38.927039822068</v>
+        <v>-39.5770410986156</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>16.1621085536453</v>
+        <v>16.1573127095875</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>47.2749065327054</v>
+        <v>48.028385849</v>
       </c>
     </row>
     <row r="66">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-33.0748061500142</v>
+        <v>-33.6918456667311</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>16.0524330556817</v>
+        <v>16.0486288917671</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>42.9059226445608</v>
+        <v>43.544724309</v>
       </c>
     </row>
     <row r="75">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-37.2868955936478</v>
+        <v>-37.8726883570468</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>15.9890729072169</v>
+        <v>15.9859912072636</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>39.1373594269489</v>
+        <v>39.734355009</v>
       </c>
     </row>
     <row r="84">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-39.2658179521903</v>
+        <v>-39.8584865661332</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>15.9200355546078</v>
+        <v>15.9173863841653</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>36.2774687913927</v>
+        <v>36.848615939</v>
       </c>
     </row>
     <row r="93">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-32.8233792715799</v>
+        <v>-33.3558423358787</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>15.9466602034371</v>
+        <v>15.944639173563</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>37.075113629998</v>
+        <v>37.608437879</v>
       </c>
     </row>
     <row r="102">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-24.443745938415</v>
+        <v>-24.9356411661823</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>16.0408395924455</v>
+        <v>16.0392545001878</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>36.8710669111781</v>
+        <v>37.396077309</v>
       </c>
     </row>
     <row r="111">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-22.1137383454003</v>
+        <v>-22.5821146408691</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>16.1285553695214</v>
+        <v>16.1270799642241</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>32.4755531114976</v>
+        <v>32.964643904</v>
       </c>
     </row>
     <row r="120">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-31.7685433204936</v>
+        <v>-32.2388678992214</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>16.1945782028764</v>
+        <v>16.193404541339</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>33.3086092733825</v>
+        <v>33.715089764</v>
       </c>
     </row>
     <row r="129">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-18.3112465820602</v>
+        <v>-18.7464580695669</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>16.3770165816592</v>
+        <v>16.3761629816355</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>32.3309191483971</v>
+        <v>32.657254315</v>
       </c>
     </row>
     <row r="138">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-17.7427352707245</v>
+        <v>-18.1938345855331</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>16.5066353914223</v>
+        <v>16.505839985549</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>31.5479617079669</v>
+        <v>32.178738192</v>
       </c>
     </row>
     <row r="147">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-21.7923355520578</v>
+        <v>-22.2011437938152</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>16.6287631463242</v>
+        <v>16.628782393708</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>29.5232263321978</v>
+        <v>30.146302752</v>
       </c>
     </row>
     <row r="156">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-22.9057762546214</v>
+        <v>-23.2977758571246</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>16.8262073566791</v>
+        <v>16.8253720211891</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>33.3624388927364</v>
+        <v>33.928403517</v>
       </c>
     </row>
     <row r="165">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-10.0210545613128</v>
+        <v>-10.3911367221381</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>16.6390085379327</v>
+        <v>16.6382164859312</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>31.5207508956203</v>
+        <v>32.052325012</v>
       </c>
     </row>
     <row r="174">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-15.2591544712594</v>
+        <v>-15.6088079204058</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>16.3908098135575</v>
+        <v>16.3901121546262</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>30.928994634484</v>
+        <v>31.523301687</v>
       </c>
     </row>
     <row r="183">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-20.6202071815487</v>
+        <v>-20.9537432806055</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>16.5067673426753</v>
+        <v>16.5062559576602</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>34.6664309697934</v>
+        <v>35.266013722</v>
       </c>
     </row>
     <row r="192">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-6.62770274897146</v>
+        <v>-6.94662761660907</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>16.4316118354086</v>
+        <v>16.4304478479864</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>33.6556599670801</v>
+        <v>34.247117802</v>
       </c>
     </row>
     <row r="201">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-10.3923686508056</v>
+        <v>-10.7127126567346</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>16.2955921878641</v>
+        <v>16.298063888146</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>37.4329882430229</v>
+        <v>38.120283842</v>
       </c>
     </row>
     <row r="210">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>1.84396866167451</v>
+        <v>1.52206884800985</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>16.6263938097554</v>
+        <v>16.6349699849316</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>37.1215554691113</v>
+        <v>37.950724947</v>
       </c>
     </row>
     <row r="219">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>3.04523030187057</v>
+        <v>2.72338510971934</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>16.2440440758061</v>
+        <v>16.2628056042061</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>35.3960601522746</v>
+        <v>36.184755245</v>
       </c>
     </row>
     <row r="228">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>4.39295279668327</v>
+        <v>4.12321895908182</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>16.0981811319467</v>
+        <v>16.1254494251634</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>37.4008670265071</v>
+        <v>38.157054455</v>
       </c>
     </row>
     <row r="237">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>6.26917376911038</v>
+        <v>6.02607230848521</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>16.291860237537</v>
+        <v>16.3272897902124</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>36.6337439402987</v>
+        <v>37.260399882</v>
       </c>
     </row>
     <row r="246">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-2.30075606282178</v>
+        <v>-2.53939543142772</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>16.3558423769586</v>
+        <v>16.4007120065781</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>39.2540414233076</v>
+        <v>39.862523798</v>
       </c>
     </row>
     <row r="255">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>7.33785335182021</v>
+        <v>7.10320051391115</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>16.2510766268317</v>
+        <v>16.3065397633697</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>39.4186567420118</v>
+        <v>40.022475996</v>
       </c>
     </row>
     <row r="264">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>5.28842586493105</v>
+        <v>5.05504830260645</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>16.6957644548332</v>
+        <v>16.8078425905374</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>37.0735931750178</v>
+        <v>37.678001922</v>
       </c>
     </row>
     <row r="273">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-15.2429349460302</v>
+        <v>-15.4815405706343</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>16.2892614884296</v>
+        <v>16.3810632572538</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>41.1891315045011</v>
+        <v>41.725839372</v>
       </c>
     </row>
     <row r="282">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-5.03268272483974</v>
+        <v>-5.42877463472697</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>16.0096058245537</v>
+        <v>16.1163642815499</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>31.7953920981813</v>
+        <v>32.497414497</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>15.3755905612592</v>
+        <v>15.3755905517466</v>
       </c>
     </row>
     <row r="292">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>68.9341183150994</v>
+        <v>69.0098053151694</v>
       </c>
     </row>
     <row r="295">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-15.093676361206</v>
+        <v>-15.6534244613182</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>14.6217347784025</v>
+        <v>14.7650893972127</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>32.9554253646</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>17.503612868425</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>42.3600640553707</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>15.836368468994</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>61.315181488967</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>26.973138805376</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>21.0781206246095</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-11.1612842625508</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>14.8326209148326</v>
       </c>
     </row>
   </sheetData>
